--- a/raman_fitting/results/DW/DW_FitParameters_Model_1st_6peaks.xlsx
+++ b/raman_fitting/results/DW/DW_FitParameters_Model_1st_6peaks.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>D1D1_amplitude</t>
   </si>
@@ -170,6 +170,21 @@
   </si>
   <si>
     <t>AD3/(AG+AD2</t>
+  </si>
+  <si>
+    <t>D5_amplitude</t>
+  </si>
+  <si>
+    <t>D5_center</t>
+  </si>
+  <si>
+    <t>D5_sigma</t>
+  </si>
+  <si>
+    <t>D5_fwhm</t>
+  </si>
+  <si>
+    <t>D5_height</t>
   </si>
   <si>
     <t>leastsq</t>
@@ -536,13 +551,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AZ2"/>
+  <dimension ref="A1:BE2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:52">
+    <row r="1" spans="1:57">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -699,8 +714,23 @@
       <c r="AZ1" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="BA1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="2" spans="1:52">
+    <row r="2" spans="1:57">
       <c r="A2">
         <v>43.89298100725679</v>
       </c>
@@ -708,154 +738,169 @@
         <v>0.09009322726714032</v>
       </c>
       <c r="C2">
-        <v>1.202477583238708</v>
+        <v>1.037450558252814</v>
       </c>
       <c r="D2">
-        <v>0.002802978049507479</v>
+        <v>0.002435329948950267</v>
       </c>
       <c r="E2">
-        <v>-2533.242205307576</v>
+        <v>-2580.497018718874</v>
       </c>
       <c r="F2">
-        <v>-2594.679573744059</v>
+        <v>-2654.221860842654</v>
       </c>
       <c r="G2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="I2" t="b">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>727</v>
+        <v>1147</v>
       </c>
       <c r="K2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="L2">
-        <v>82.93961833630459</v>
+        <v>86.38460595631527</v>
       </c>
       <c r="M2">
-        <v>1569.50562833246</v>
+        <v>1567.982591306674</v>
       </c>
       <c r="N2">
-        <v>28.34442373481292</v>
+        <v>30.06326136017712</v>
       </c>
       <c r="O2">
-        <v>419.5099418098317</v>
+        <v>283.7434806177242</v>
       </c>
       <c r="P2">
-        <v>1339.50596247256</v>
+        <v>1352.728071045993</v>
       </c>
       <c r="Q2">
-        <v>78.83576347077361</v>
+        <v>66.58054672887629</v>
       </c>
       <c r="R2">
-        <v>56.68884746962583</v>
+        <v>60.12652272035424</v>
       </c>
       <c r="S2">
-        <v>0.9314178289764242</v>
+        <v>0.9146404627914966</v>
       </c>
       <c r="T2">
-        <v>157.6715269415472</v>
+        <v>133.1610934577526</v>
       </c>
       <c r="U2">
-        <v>1.693827290402252</v>
+        <v>1.356527745391857</v>
       </c>
       <c r="V2">
-        <v>1.818547205891123</v>
+        <v>1.48312675917673</v>
       </c>
       <c r="W2">
-        <v>2.41951376667394</v>
+        <v>2.966705288523281</v>
       </c>
       <c r="X2">
-        <v>0.4680644859385604</v>
+        <v>0.584448348103499</v>
       </c>
       <c r="Y2">
-        <v>5.058016304208173</v>
+        <v>3.284653295301404</v>
       </c>
       <c r="Z2">
-        <v>0.869906250863463</v>
+        <v>1.339562993237084</v>
       </c>
       <c r="AA2">
-        <v>0.9207367796755451</v>
+        <v>1.361293771483157</v>
       </c>
       <c r="AB2">
-        <v>75.38003135629575</v>
+        <v>84.58273055113942</v>
       </c>
       <c r="AC2">
-        <v>1501.307935220997</v>
+        <v>1494.663312327073</v>
       </c>
       <c r="AD2">
-        <v>51.19325825625057</v>
+        <v>54.35875793181971</v>
       </c>
       <c r="AE2">
-        <v>102.3865165125011</v>
+        <v>108.7175158636394</v>
       </c>
       <c r="AF2">
-        <v>0.4686986345529145</v>
+        <v>0.4952931510545065</v>
       </c>
       <c r="AG2">
-        <v>0.5032098591756483</v>
+        <v>0.5415167721126882</v>
       </c>
       <c r="AH2">
-        <v>0.9088543312394308</v>
+        <v>0.9791412441461265</v>
       </c>
       <c r="AI2">
-        <v>49.50610592214041</v>
+        <v>118.3184127190889</v>
       </c>
       <c r="AJ2">
-        <v>1202.845099223213</v>
+        <v>1289.999985957974</v>
       </c>
       <c r="AK2">
-        <v>80.43496167649361</v>
+        <v>64.6251603349076</v>
       </c>
       <c r="AL2">
-        <v>160.8699233529872</v>
+        <v>129.2503206698152</v>
       </c>
       <c r="AM2">
-        <v>0.1959133602729264</v>
+        <v>0.5827749119011257</v>
       </c>
       <c r="AN2">
-        <v>0.2103388556435774</v>
+        <v>0.6371628367746687</v>
       </c>
       <c r="AO2">
-        <v>0.596893341387254</v>
+        <v>1.369670109729071</v>
       </c>
       <c r="AP2">
-        <v>63.01978200924088</v>
+        <v>68.00375290670584</v>
       </c>
       <c r="AQ2">
-        <v>1601.662577213738</v>
+        <v>1600.750428337946</v>
       </c>
       <c r="AR2">
-        <v>23.66849088394957</v>
+        <v>24.70710999178949</v>
       </c>
       <c r="AS2">
-        <v>47.33698176789913</v>
+        <v>49.41421998357899</v>
       </c>
       <c r="AT2">
-        <v>0.8475327222060673</v>
+        <v>0.8761149237831374</v>
       </c>
       <c r="AU2">
-        <v>0.9521497319171369</v>
+        <v>0.7575170542899387</v>
       </c>
       <c r="AV2">
-        <v>4.621121922852068</v>
+        <v>5.808450087139432</v>
       </c>
       <c r="AW2">
-        <v>0.2634691752625526</v>
+        <v>0.2765833651919963</v>
       </c>
       <c r="AX2">
-        <v>2.874155010343153</v>
+        <v>1.837855410261027</v>
       </c>
       <c r="AY2">
-        <v>1.530884724089628</v>
+        <v>2.39409475600427</v>
       </c>
       <c r="AZ2">
-        <v>0.5164451976223555</v>
+        <v>0.5478569185788436</v>
+      </c>
+      <c r="BA2">
+        <v>39.17283307741318</v>
+      </c>
+      <c r="BB2">
+        <v>1163.227403826958</v>
+      </c>
+      <c r="BC2">
+        <v>64.52848971927872</v>
+      </c>
+      <c r="BD2">
+        <v>129.0569794385574</v>
+      </c>
+      <c r="BE2">
+        <v>0.1932340371490637</v>
       </c>
     </row>
   </sheetData>

--- a/raman_fitting/results/DW/DW_FitParameters_Model_1st_6peaks.xlsx
+++ b/raman_fitting/results/DW/DW_FitParameters_Model_1st_6peaks.xlsx
@@ -193,7 +193,7 @@
     <t>Fit succeeded.</t>
   </si>
   <si>
-    <t>2021-05-07 16:00</t>
+    <t>2021-05-08 14:00</t>
   </si>
 </sst>
 </file>
